--- a/document/tasklist/alltask.xlsx
+++ b/document/tasklist/alltask.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3850685C-7948-442A-A38A-9D884DF4A76F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="web-app-gui" sheetId="1" r:id="rId1"/>
@@ -14,12 +15,15 @@
     <sheet name="db" sheetId="2" r:id="rId5"/>
     <sheet name="more if" sheetId="4" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="129">
   <si>
     <t>no.</t>
   </si>
@@ -225,9 +229,6 @@
     <t>tao giao diện quản lý cụm rạp</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>1. thêm  sửa cụm rạp
 2. thêm xóa sửa rạp
 3. thêm xóa sửa phòng</t>
@@ -492,11 +493,20 @@
 những câu hỏi thường gặp; hot line;
 điểm tích lũy đổi quà?!</t>
   </si>
+  <si>
+    <t>36h</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>20h</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -589,8 +599,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{10DC2E85-58E3-4407-90D0-9BBB054C6965}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -678,6 +716,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -713,6 +768,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -888,11 +960,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -946,7 +1018,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>16</v>
@@ -1031,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>18</v>
@@ -1053,10 +1125,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>36</v>
@@ -1069,7 +1141,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
@@ -1091,7 +1163,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
@@ -1100,10 +1172,10 @@
         <v>55</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1113,18 +1185,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
@@ -1133,7 +1207,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -1211,11 +1285,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>3</v>
@@ -1260,10 +1334,12 @@
         <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1325,7 +1401,7 @@
         <v>40</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -1346,7 +1422,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -1382,7 +1458,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>51</v>
@@ -1403,10 +1479,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>15</v>
@@ -1424,13 +1500,13 @@
         <v>4</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7"/>
     </row>
@@ -1439,19 +1515,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G11" s="7"/>
     </row>
@@ -1460,16 +1536,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>16</v>
@@ -1481,16 +1557,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>48</v>
@@ -1502,19 +1578,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="G14" s="7"/>
     </row>
@@ -1534,11 +1610,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>3</v>
@@ -1571,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1579,16 +1655,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>16</v>
@@ -1601,16 +1677,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>36</v>
@@ -1623,18 +1699,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
@@ -1643,18 +1721,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="9"/>
+        <v>96</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
@@ -1663,18 +1743,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
@@ -1683,18 +1765,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
@@ -1703,18 +1787,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="9"/>
+        <v>102</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
@@ -1723,16 +1809,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>16</v>
@@ -1776,11 +1862,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>3</v>
@@ -1813,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1821,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>16</v>
@@ -1843,16 +1929,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>36</v>
@@ -1865,18 +1951,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="12"/>
+        <v>124</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
@@ -1885,18 +1973,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="12"/>
+        <v>96</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
@@ -1905,18 +1995,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D6" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
     </row>
@@ -1925,18 +2017,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
@@ -1945,18 +2039,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" s="12"/>
+        <v>125</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
     </row>
@@ -1965,16 +2061,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>16</v>
@@ -2018,11 +2114,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2071,7 +2167,7 @@
         <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2091,7 +2187,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2100,11 +2196,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
